--- a/fuentes/contenidos/grado07/guion02/Escaleta_CN_07_02_CO.xlsx
+++ b/fuentes/contenidos/grado07/guion02/Escaleta_CN_07_02_CO.xlsx
@@ -1,24 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\Dropbox\Editorial planeta\1. Autor\Escaletas\CN_07_02_CO\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10305" windowHeight="4635"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
-    <sheet name="DATOS" sheetId="1" state="hidden" r:id="rId2"/>
+    <sheet name="DATOS" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$P$1:$P$281</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterateCount="2" iterateDelta="10"/>
 </workbook>
 </file>
 
@@ -740,7 +735,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1145,7 +1140,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1180,7 +1175,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1392,9 +1387,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:U281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N30" sqref="N30"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P283" sqref="P283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1412,7 +1407,7 @@
     <col min="11" max="11" width="13.28515625" customWidth="1"/>
     <col min="12" max="12" width="23.7109375" customWidth="1"/>
     <col min="13" max="14" width="9.28515625" customWidth="1"/>
-    <col min="15" max="15" width="57.140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" style="1" customWidth="1"/>
     <col min="16" max="16" width="16.5703125" style="23" customWidth="1"/>
     <col min="17" max="17" width="20.42578125" style="1" customWidth="1"/>
     <col min="18" max="18" width="23" bestFit="1" customWidth="1"/>
@@ -1484,7 +1479,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="15" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" s="15" customFormat="1" ht="21" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="45"/>
       <c r="B2" s="43"/>
       <c r="C2" s="54"/>
@@ -1511,7 +1506,7 @@
       <c r="T2" s="58"/>
       <c r="U2" s="56"/>
     </row>
-    <row r="3" spans="1:21" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>17</v>
       </c>
@@ -1932,7 +1927,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>17</v>
       </c>
@@ -2083,7 +2078,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>17</v>
       </c>
@@ -2555,7 +2550,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>17</v>
       </c>
@@ -3036,7 +3031,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>17</v>
       </c>
@@ -3093,7 +3088,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
       <c r="B31" s="28"/>
       <c r="C31" s="34"/>
@@ -3116,7 +3111,7 @@
       <c r="T31" s="31"/>
       <c r="U31" s="10"/>
     </row>
-    <row r="32" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
       <c r="B32" s="28"/>
       <c r="C32" s="34"/>
@@ -3139,7 +3134,7 @@
       <c r="T32" s="31"/>
       <c r="U32" s="10"/>
     </row>
-    <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
       <c r="B33" s="28"/>
       <c r="C33" s="34"/>
@@ -3162,7 +3157,7 @@
       <c r="T33" s="31"/>
       <c r="U33" s="10"/>
     </row>
-    <row r="34" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
       <c r="B34" s="28"/>
       <c r="C34" s="34"/>
@@ -3185,7 +3180,7 @@
       <c r="T34" s="31"/>
       <c r="U34" s="10"/>
     </row>
-    <row r="35" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14"/>
       <c r="B35" s="28"/>
       <c r="C35" s="34"/>
@@ -3208,7 +3203,7 @@
       <c r="T35" s="31"/>
       <c r="U35" s="10"/>
     </row>
-    <row r="36" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14"/>
       <c r="B36" s="28"/>
       <c r="C36" s="34"/>
@@ -3231,7 +3226,7 @@
       <c r="T36" s="31"/>
       <c r="U36" s="10"/>
     </row>
-    <row r="37" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="14"/>
       <c r="B37" s="28"/>
       <c r="C37" s="34"/>
@@ -3254,7 +3249,7 @@
       <c r="T37" s="31"/>
       <c r="U37" s="10"/>
     </row>
-    <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14"/>
       <c r="B38" s="28"/>
       <c r="C38" s="34"/>
@@ -3277,7 +3272,7 @@
       <c r="T38" s="31"/>
       <c r="U38" s="10"/>
     </row>
-    <row r="39" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14"/>
       <c r="B39" s="28"/>
       <c r="C39" s="34"/>
@@ -3300,7 +3295,7 @@
       <c r="T39" s="31"/>
       <c r="U39" s="10"/>
     </row>
-    <row r="40" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="35"/>
       <c r="C40" s="36"/>
@@ -3323,7 +3318,7 @@
       <c r="T40" s="31"/>
       <c r="U40" s="10"/>
     </row>
-    <row r="41" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="35"/>
       <c r="C41" s="36"/>
@@ -3346,7 +3341,7 @@
       <c r="T41" s="31"/>
       <c r="U41" s="10"/>
     </row>
-    <row r="42" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="35"/>
       <c r="C42" s="36"/>
@@ -3369,7 +3364,7 @@
       <c r="T42" s="31"/>
       <c r="U42" s="10"/>
     </row>
-    <row r="43" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="35"/>
       <c r="C43" s="36"/>
@@ -3392,7 +3387,7 @@
       <c r="T43" s="31"/>
       <c r="U43" s="10"/>
     </row>
-    <row r="44" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="35"/>
       <c r="C44" s="36"/>
@@ -3415,7 +3410,7 @@
       <c r="T44" s="31"/>
       <c r="U44" s="10"/>
     </row>
-    <row r="45" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="35"/>
       <c r="C45" s="36"/>
@@ -3438,7 +3433,7 @@
       <c r="T45" s="31"/>
       <c r="U45" s="10"/>
     </row>
-    <row r="46" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="35"/>
       <c r="C46" s="36"/>
@@ -3461,7 +3456,7 @@
       <c r="T46" s="31"/>
       <c r="U46" s="10"/>
     </row>
-    <row r="47" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="35"/>
       <c r="C47" s="36"/>
@@ -3484,7 +3479,7 @@
       <c r="T47" s="31"/>
       <c r="U47" s="10"/>
     </row>
-    <row r="48" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="35"/>
       <c r="C48" s="36"/>
@@ -3507,7 +3502,7 @@
       <c r="T48" s="31"/>
       <c r="U48" s="10"/>
     </row>
-    <row r="49" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="35"/>
       <c r="C49" s="36"/>
@@ -3530,7 +3525,7 @@
       <c r="T49" s="31"/>
       <c r="U49" s="10"/>
     </row>
-    <row r="50" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="35"/>
       <c r="C50" s="36"/>
@@ -3553,7 +3548,7 @@
       <c r="T50" s="31"/>
       <c r="U50" s="10"/>
     </row>
-    <row r="51" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="35"/>
       <c r="C51" s="36"/>
@@ -3576,7 +3571,7 @@
       <c r="T51" s="31"/>
       <c r="U51" s="10"/>
     </row>
-    <row r="52" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="35"/>
       <c r="C52" s="36"/>
@@ -3599,7 +3594,7 @@
       <c r="T52" s="31"/>
       <c r="U52" s="10"/>
     </row>
-    <row r="53" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="35"/>
       <c r="C53" s="36"/>
@@ -3622,7 +3617,7 @@
       <c r="T53" s="31"/>
       <c r="U53" s="10"/>
     </row>
-    <row r="54" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="35"/>
       <c r="C54" s="36"/>
@@ -3645,7 +3640,7 @@
       <c r="T54" s="31"/>
       <c r="U54" s="10"/>
     </row>
-    <row r="55" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="35"/>
       <c r="C55" s="36"/>
@@ -3668,7 +3663,7 @@
       <c r="T55" s="31"/>
       <c r="U55" s="10"/>
     </row>
-    <row r="56" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="35"/>
       <c r="C56" s="36"/>
@@ -3691,7 +3686,7 @@
       <c r="T56" s="31"/>
       <c r="U56" s="10"/>
     </row>
-    <row r="57" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="35"/>
       <c r="C57" s="36"/>
@@ -3714,7 +3709,7 @@
       <c r="T57" s="31"/>
       <c r="U57" s="10"/>
     </row>
-    <row r="58" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="35"/>
       <c r="C58" s="36"/>
@@ -3737,7 +3732,7 @@
       <c r="T58" s="31"/>
       <c r="U58" s="10"/>
     </row>
-    <row r="59" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="35"/>
       <c r="C59" s="36"/>
@@ -3760,7 +3755,7 @@
       <c r="T59" s="31"/>
       <c r="U59" s="10"/>
     </row>
-    <row r="60" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="35"/>
       <c r="C60" s="36"/>
@@ -3783,7 +3778,7 @@
       <c r="T60" s="31"/>
       <c r="U60" s="10"/>
     </row>
-    <row r="61" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="35"/>
       <c r="C61" s="36"/>
@@ -3806,7 +3801,7 @@
       <c r="T61" s="31"/>
       <c r="U61" s="10"/>
     </row>
-    <row r="62" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="35"/>
       <c r="C62" s="36"/>
@@ -3829,7 +3824,7 @@
       <c r="T62" s="31"/>
       <c r="U62" s="10"/>
     </row>
-    <row r="63" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="35"/>
       <c r="C63" s="36"/>
@@ -3852,7 +3847,7 @@
       <c r="T63" s="31"/>
       <c r="U63" s="10"/>
     </row>
-    <row r="64" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="35"/>
       <c r="C64" s="36"/>
@@ -3875,7 +3870,7 @@
       <c r="T64" s="31"/>
       <c r="U64" s="10"/>
     </row>
-    <row r="65" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="35"/>
       <c r="C65" s="36"/>
@@ -3898,7 +3893,7 @@
       <c r="T65" s="31"/>
       <c r="U65" s="10"/>
     </row>
-    <row r="66" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="35"/>
       <c r="C66" s="36"/>
@@ -3921,7 +3916,7 @@
       <c r="T66" s="31"/>
       <c r="U66" s="10"/>
     </row>
-    <row r="67" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="35"/>
       <c r="C67" s="36"/>
@@ -3944,6 +3939,7 @@
       <c r="T67" s="31"/>
       <c r="U67" s="10"/>
     </row>
+    <row r="68" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="69" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="70" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="71" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
@@ -4306,13 +4302,12 @@
     <row r="280" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="281" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:U30">
-    <filterColumn colId="10">
+  <autoFilter ref="P1:P281">
+    <filterColumn colId="0">
       <filters>
-        <filter val="NO"/>
+        <filter val="SI"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
     <mergeCell ref="P1:P2"/>
